--- a/Prácticas/grupo/Riesgos_E14.xlsx
+++ b/Prácticas/grupo/Riesgos_E14.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EEABAF-DA81-49DE-A5C8-9863CB23401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="iquz+tTTGof0tBGN4SkHYWOP1VM2lXMt1Z4aPCuem1B1EGkbpeadasGMau4vw/PKjXV4FWQJqv19aLmCAwoA2A==" workbookSaltValue="hI9XeU19/0p3oUpME/iDbA==" workbookSpinCount="100000" lockStructure="1"/>
@@ -16,8 +16,11 @@
   <definedNames>
     <definedName name="Estrategias">Listas!$A$2:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,12 +39,270 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="93">
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nombre del Riesdo</t>
+  </si>
+  <si>
+    <t>Breve Descripción</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
     <t>Val.</t>
   </si>
   <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Respuesta al Riesgo</t>
+  </si>
+  <si>
+    <t>Estrategia</t>
+  </si>
+  <si>
+    <t>Presup.</t>
+  </si>
+  <si>
     <t>Val</t>
   </si>
   <si>
+    <t>Planific.</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Priorización</t>
+  </si>
+  <si>
+    <t>Interrupción de la conectividad de red</t>
+  </si>
+  <si>
+    <t>Al ser el sistema un sistema en tiempo real del que dependen vidas, problemas en las conexiones por parte tanto de los hospitales, como de los pacientes o los conductores podrían llevar a una indebida respuesta.</t>
+  </si>
+  <si>
+    <t>Riesgo de producto, impredecible</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Crítico</t>
+  </si>
+  <si>
+    <t>Se deberán implementar medidas por parte de las salas de seguimiento y los vehículos de transporte para mitigar al máximo estas interrupciones.</t>
+  </si>
+  <si>
+    <t>Mitigar el riesgo</t>
+  </si>
+  <si>
+    <t>Cambio en la legislación</t>
+  </si>
+  <si>
+    <t>Cambios en la legislación acerca de como se almacenan los datos médicos de los pacientes podría requerir ajustes significativos en el proyecto.</t>
+  </si>
+  <si>
+    <t>Riesgo de proyecto, impredecible</t>
+  </si>
+  <si>
+    <t>Muy Baja</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Se deberá revisar el proyecto y la planificación, hay que asumir este riesgo, ha de cumplirse la nueva legislación.</t>
+  </si>
+  <si>
+    <t>Asumir el riesgo</t>
+  </si>
+  <si>
+    <t>Fallos en la integración de sistemas</t>
+  </si>
+  <si>
+    <t>Al ser el HIS un sistema existente que no se va a modificar, cualquier complicación de la integración deberá ser resuelta por la parte del proyecto de teleasistencia, puediendo tener que emplear soluciones subóptimas y complejas que amplien el tiempo de entrega.</t>
+  </si>
+  <si>
+    <t>Riesgo de proyecto, predecible</t>
+  </si>
+  <si>
+    <t>Se debería estudiar muy bien de antemano el funcionamiento y capacidad del HIS para mitigar todos los posibles fallos de integración, pero si aún así se encuentran, habrá que resolverlos y avanzar.</t>
+  </si>
+  <si>
+    <t>Problemas de adopción del usuario</t>
+  </si>
+  <si>
+    <t>Existe la posibilidad de que para los usuarios finales, probablemente de una edad avanzada en su mayoría, surjan complicaciones a la hora de adaptarse y usar el software.</t>
+  </si>
+  <si>
+    <t>Riesgo de producto, predecible</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Se deberían implementar pruebas de usabilidad exhaustivas, sobre todo con los grupos de edad más avanzados, que probablemente sean la mayor parte de los clientes finales, para evitar problemas a la hora de que estos se adapten a la aplicación.</t>
+  </si>
+  <si>
+    <t>Caída de la red eléctrica</t>
+  </si>
+  <si>
+    <t>Debido a causas ajenas al hospital, se puede caer termporalmente el servicio de electricidad del mismo. Como consecuencia, si no se tomasen las medidas adecuadas, el sistema estaría inhabilitado durante el período sin electricidad.</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Uso de generadores auxiliares y SAIS.</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito de una de las ambulancias</t>
+  </si>
+  <si>
+    <t>Debido a causas ajenas al hospital, se puede dar el caso en que uno de los conductores de ambulancias tenga un accidente de tráfico.</t>
+  </si>
+  <si>
+    <t>Inapreciable</t>
+  </si>
+  <si>
+    <t>Tener más ambulancias en plantilla.</t>
+  </si>
+  <si>
+    <t>Caída del servidor de almacenamiento de datos de cliente</t>
+  </si>
+  <si>
+    <t>Debido a causas ajenas al hospital, puede ocurrir que los servidores donde se almacenan los datos de los clientes queden temporalmente de baja o inhabilitados.</t>
+  </si>
+  <si>
+    <t>Contactar con el proveedor de almacenamiento en la nube para que otorgue una solución rápida y efectiva.</t>
+  </si>
+  <si>
+    <t>Transferir el riesgo</t>
+  </si>
+  <si>
+    <t>Fallecimiento del jefe de proyecto</t>
+  </si>
+  <si>
+    <t>Debido a causas ajenas a la empresa, puede suceder que el jefe de proyecto fallezca repentinamente.</t>
+  </si>
+  <si>
+    <t>Riesgo de negocio, impredecible</t>
+  </si>
+  <si>
+    <t>Buscar un nuevo jefe de proyecto y adaptarlo a la planificación previa.</t>
+  </si>
+  <si>
+    <t>Incendio en la sala de seguimiento</t>
+  </si>
+  <si>
+    <t>Un incendio en las instalaciones donde se desarrolla el proyecto podría causar daños materiales, inhabilitación del sistema, etc.</t>
+  </si>
+  <si>
+    <t>Riesgo del producto, impredecible</t>
+  </si>
+  <si>
+    <t>Implementar sistemas de detección y extinción de incendios, realizar simulacros de evacuación regulares y tener un plan de recuperación</t>
+  </si>
+  <si>
+    <t>Inundación en la sala de seguimiento</t>
+  </si>
+  <si>
+    <t>La sala de seguimiento del hospital podría verse afectado por una inundación, lo que provocaría daños en los equipos y una interrupción en el servicio.</t>
+  </si>
+  <si>
+    <t>Implementar medidas de prevención de inundaciones, como sistemas de drenaje y sellado adecuado</t>
+  </si>
+  <si>
+    <t>Robo de material en la sala de seguimiento</t>
+  </si>
+  <si>
+    <t>Actos de robo o vandalismo en las salas de seguimiento de los hospitales que causarían daños materiales, pérdida de equipos, etc.</t>
+  </si>
+  <si>
+    <t>Implementar sistemas de seguridad física, como cámaras de vigilancia y acceso restringido, y asegurar adecuadamente los equipos y las instalaciones</t>
+  </si>
+  <si>
+    <t>Empleado presenta su dimisión</t>
+  </si>
+  <si>
+    <t>Posibilidad de que un empleado crucial para el proyecto presente su dimisión</t>
+  </si>
+  <si>
+    <t>Riesgo del proyecto, predecible</t>
+  </si>
+  <si>
+    <t>Implementar medidas para retener al personal clave pero, en caso de que esto no funcione, se debe encontrar un reemplazo con un perfil similar lo más rápido posible.</t>
+  </si>
+  <si>
+    <t>Retraso en la entrega del hardware para el entorno de integración</t>
+  </si>
+  <si>
+    <t>Debido a causas ajenas a la empresa, se pueden producir retrasos en el envío del hardware solicitado para la integración del sistema en los hospitales. Como consecuencia, se produciría un retraso general del proyecto.</t>
+  </si>
+  <si>
+    <t>Riesgo de negocio (mercado), impredecible</t>
+  </si>
+  <si>
+    <t>Estar pendiente del seguimiento del pedido, y si el retraso se mantuviese, pedirlos a otra empresa.</t>
+  </si>
+  <si>
+    <t>Empleado pide baja</t>
+  </si>
+  <si>
+    <t>Un empleado de la empresa pide una baja ya sea por enfermedad, accidente, maternidad, etc, afectando al desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Contratar temporalmente a un sustituto que lo reemplace.</t>
+  </si>
+  <si>
+    <t>Ciberataque al HIS</t>
+  </si>
+  <si>
+    <t>El ciberataque podría provocar un mal funcionamiento del sistema de teleasistencia, ya que este depende altamente de los datos proporcionados por el HIS.</t>
+  </si>
+  <si>
+    <t>Deshabilitar la aplicación durante el tiempo que dure el ataque.</t>
+  </si>
+  <si>
+    <t>Deficiente calidad de la documentación</t>
+  </si>
+  <si>
+    <t>Debido a una pobre documentación, todos los cambios realizados posteriormente al lanzamiento del proyecto son más difíciles de implementar.</t>
+  </si>
+  <si>
+    <t>Riesgo del producto, conocido</t>
+  </si>
+  <si>
+    <t>Documentar correctamente.</t>
+  </si>
+  <si>
+    <t>Eliminar el riesgo</t>
+  </si>
+  <si>
+    <t>Muy Alta</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
     <t>Verde</t>
   </si>
   <si>
@@ -51,275 +312,17 @@
     <t>Rojo</t>
   </si>
   <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Probabilidad</t>
-  </si>
-  <si>
-    <t>Presup.</t>
-  </si>
-  <si>
-    <t>Planific.</t>
-  </si>
-  <si>
-    <t>Alcance</t>
-  </si>
-  <si>
-    <t>Calidad</t>
-  </si>
-  <si>
-    <t>Impacto</t>
-  </si>
-  <si>
-    <t>Priorización</t>
-  </si>
-  <si>
     <t>Rangos de color</t>
   </si>
   <si>
-    <t>Muy Alta</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Muy Baja</t>
-  </si>
-  <si>
-    <t>Inapreciable</t>
-  </si>
-  <si>
-    <t>Bajo</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Alto</t>
-  </si>
-  <si>
-    <t>Crítico</t>
-  </si>
-  <si>
-    <t>Nombre del Riesdo</t>
-  </si>
-  <si>
-    <t>Breve Descripción</t>
-  </si>
-  <si>
-    <t>Respuesta al Riesgo</t>
-  </si>
-  <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>Estrategia</t>
-  </si>
-  <si>
-    <t>Eliminar el riesgo</t>
-  </si>
-  <si>
-    <t>Mitigar el riesgo</t>
-  </si>
-  <si>
-    <t>Asumir el riesgo</t>
-  </si>
-  <si>
-    <t>Transferir el riesgo</t>
-  </si>
-  <si>
     <t>Estrategias</t>
-  </si>
-  <si>
-    <t>Interrupción de la conectividad de red</t>
-  </si>
-  <si>
-    <t>Al ser el sistema un sistema en tiempo real del que dependen vidas, problemas en las conexiones por parte tanto de los hospitales, como de los pacientes o los conductores podrían llevar a una indebida respuesta.</t>
-  </si>
-  <si>
-    <t>Riesgo de producto, impredecible</t>
-  </si>
-  <si>
-    <t>Cambio en la legislación</t>
-  </si>
-  <si>
-    <t>Cambios en la legislación acerca de como se almacenan los datos médicos de los pacientes podría requerir ajustes significativos en el proyecto.</t>
-  </si>
-  <si>
-    <t>Riesgo de proyecto, impredecible</t>
-  </si>
-  <si>
-    <t>Fallos en la integración de sistemas</t>
-  </si>
-  <si>
-    <t>Al ser el HIS un sistema existente que no se va a modificar, cualquier complicación de la integración deberá ser resuelta por la parte del proyecto de teleasistencia, puediendo tener que emplear soluciones subóptimas y complejas que amplien el tiempo de entrega.</t>
-  </si>
-  <si>
-    <t>Problemas de adopción del usuario</t>
-  </si>
-  <si>
-    <t>Existe la posibilidad de que para los usuarios finales, probablemente de una edad avanzada en su mayoría, surjan complicaciones a la hora de adaptarse y usar el software.</t>
-  </si>
-  <si>
-    <t>Se deberán implementar medidas por parte de las salas de seguimiento y los vehículos de transporte para mitigar al máximo estas interrupciones.</t>
-  </si>
-  <si>
-    <t>Se deberá revisar el proyecto y la planificación, hay que asumir este riesgo, ha de cumplirse la nueva legislación.</t>
-  </si>
-  <si>
-    <t>Se debería estudiar muy bien de antemano el funcionamiento y capacidad del HIS para mitigar todos los posibles fallos de integración, pero si aún así se encuentran, habrá que resolverlos y avanzar.</t>
-  </si>
-  <si>
-    <t>Se deberían implementar pruebas de usabilidad exhaustivas, sobre todo con los grupos de edad más avanzados, que probablemente sean la mayor parte de los clientes finales, para evitar problemas a la hora de que estos se adapten a la aplicación.</t>
-  </si>
-  <si>
-    <t>Caída de la red eléctrica</t>
-  </si>
-  <si>
-    <t>Debido a causas ajenas al hospital, se puede caer termporalmente el servicio de electricidad del mismo. Como consecuencia, si no se tomasen las medidas adecuadas, el sistema estaría inhabilitado durante el período sin electricidad.</t>
-  </si>
-  <si>
-    <t>Riesgo de proyecto, predecible</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito de una de las ambulancias</t>
-  </si>
-  <si>
-    <t>Debido a causas ajenas al hospital, se puede dar el caso en que uno de los conductores de ambulancias tenga un accidente de tráfico.</t>
-  </si>
-  <si>
-    <t>Caída del servidor de almacenamiento de datos de cliente</t>
-  </si>
-  <si>
-    <t>Debido a causas ajenas al hospital, puede ocurrir que los servidores donde se almacenan los datos de los clientes queden temporalmente de baja o inhabilitados.</t>
-  </si>
-  <si>
-    <t>Fallecimiento del jefe de proyecto</t>
-  </si>
-  <si>
-    <t>Debido a causas ajenas a la empresa, puede suceder que el jefe de proyecto fallezca repentinamente.</t>
-  </si>
-  <si>
-    <t>Riesgo de negocio, impredecible</t>
-  </si>
-  <si>
-    <t>Un incendio en las instalaciones donde se desarrolla el proyecto podría causar daños materiales, inhabilitación del sistema, etc.</t>
-  </si>
-  <si>
-    <t>Empleado presenta su dimisión</t>
-  </si>
-  <si>
-    <t>Posibilidad de que un empleado crucial para el proyecto presente su dimisión</t>
-  </si>
-  <si>
-    <t>Implementar sistemas de detección y extinción de incendios, realizar simulacros de evacuación regulares y tener un plan de recuperación</t>
-  </si>
-  <si>
-    <t>Implementar medidas de prevención de inundaciones, como sistemas de drenaje y sellado adecuado</t>
-  </si>
-  <si>
-    <t>Implementar sistemas de seguridad física, como cámaras de vigilancia y acceso restringido, y asegurar adecuadamente los equipos y las instalaciones</t>
-  </si>
-  <si>
-    <t>Implementar medidas para retener al personal clave pero, en caso de que esto no funcione, se debe encontrar un reemplazo con un perfil similar lo más rápido posible.</t>
-  </si>
-  <si>
-    <t>Uso de generadores auxiliares y SAIS.</t>
-  </si>
-  <si>
-    <t>Tener más ambulancias en plantilla.</t>
-  </si>
-  <si>
-    <t>Contactar con el proveedor de almacenamiento en la nube para que otorgue una solución rápida y efectiva.</t>
-  </si>
-  <si>
-    <t>Buscar un nuevo jefe de proyecto y adaptarlo a la planificación previa.</t>
-  </si>
-  <si>
-    <t>Retraso en la entrega del hardware para el entorno de integración</t>
-  </si>
-  <si>
-    <t>Debido a causas ajenas a la empresa, se pueden producir retrasos en el envío del hardware solicitado para la integración del sistema en los hospitales. Como consecuencia, se produciría un retraso general del proyecto.</t>
-  </si>
-  <si>
-    <t>Riesgo de negocio (mercado), impredecible</t>
-  </si>
-  <si>
-    <t>Empleado pide baja</t>
-  </si>
-  <si>
-    <t>Un empleado de la empresa pide una baja ya sea por enfermedad, accidente, maternidad, etc, afectando al desarrollo del proyecto</t>
-  </si>
-  <si>
-    <t>Ciberataque al HIS</t>
-  </si>
-  <si>
-    <t>El ciberataque podría provocar un mal funcionamiento del sistema de teleasistencia, ya que este depende altamente de los datos proporcionados por el HIS.</t>
-  </si>
-  <si>
-    <t>Riesgo del producto, impredecible</t>
-  </si>
-  <si>
-    <t>Deficiente calidad de la documentación</t>
-  </si>
-  <si>
-    <t>Debido a una pobre documentación, todos los cambios realizados posteriormente al lanzamiento del proyecto son más difíciles de implementar.</t>
-  </si>
-  <si>
-    <t>Riesgo del producto, conocido</t>
-  </si>
-  <si>
-    <t>Incendio en la sala de seguimiento</t>
-  </si>
-  <si>
-    <t>Inundación en la sala de seguimiento</t>
-  </si>
-  <si>
-    <t>Robo de material en la sala de seguimiento</t>
-  </si>
-  <si>
-    <t>La sala de seguimiento del hospital podría verse afectado por una inundación, lo que provocaría daños en los equipos y una interrupción en el servicio.</t>
-  </si>
-  <si>
-    <t>Actos de robo o vandalismo en las salas de seguimiento de los hospitales que causarían daños materiales, pérdida de equipos, etc.</t>
-  </si>
-  <si>
-    <t>Estar pendiente del seguimiento del pedido, y si el retraso se mantuviese, pedirlos a otra empresa.</t>
-  </si>
-  <si>
-    <t>Contratar temporalmente a un sustituto que lo reemplace.</t>
-  </si>
-  <si>
-    <t>Deshabilitar la aplicación durante el tiempo que dure el ataque.</t>
-  </si>
-  <si>
-    <t>Documentar correctamente.</t>
-  </si>
-  <si>
-    <t>Riesgo de producto, predecible</t>
-  </si>
-  <si>
-    <t>Riesgo del proyecto, predecible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,60 +712,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -771,7 +720,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -790,6 +739,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,13 +1445,13 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="39.140625" style="22" customWidth="1"/>
@@ -1471,102 +1474,102 @@
     <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="41" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="39" t="s">
-        <v>13</v>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="46" t="s">
+        <v>6</v>
       </c>
       <c r="Q1" s="34">
         <v>0.5</v>
       </c>
-      <c r="R1" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="42"/>
+      <c r="R1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="48.75" thickBot="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="35" t="s">
-        <v>1</v>
-      </c>
       <c r="K2" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="40"/>
+        <v>10</v>
+      </c>
+      <c r="P2" s="47"/>
       <c r="Q2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="44"/>
-    </row>
-    <row r="3" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="R2" s="53"/>
+      <c r="S2" s="51"/>
+    </row>
+    <row r="3" spans="1:19" ht="63.75">
       <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>18</v>
@@ -1576,28 +1579,28 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="31">
         <f>IF(G3&lt;&gt;"",HLOOKUP(G3,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" s="31">
         <f>IF(I3&lt;&gt;"",HLOOKUP(I3,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" s="31">
         <f>IF(K3&lt;&gt;"",HLOOKUP(K3,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N3" s="31">
         <f>IF(M3&lt;&gt;"",HLOOKUP(M3,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -1616,55 +1619,55 @@
         <v/>
       </c>
       <c r="R3" s="28" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="51">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="16">
         <f>IF(E4&lt;&gt;"",VLOOKUP(E4,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.1</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" s="15">
         <f>IF(G4&lt;&gt;"",HLOOKUP(G4,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" s="15">
         <f>IF(I4&lt;&gt;"",HLOOKUP(I4,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L4" s="15">
         <f>IF(K4&lt;&gt;"",HLOOKUP(K4,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" s="15">
         <f>IF(M4&lt;&gt;"",HLOOKUP(M4,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -1683,24 +1686,24 @@
         <v/>
       </c>
       <c r="R4" s="21" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="76.5">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>18</v>
@@ -1710,28 +1713,28 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="15">
         <f>IF(G5&lt;&gt;"",HLOOKUP(G5,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J5" s="15">
         <f>IF(I5&lt;&gt;"",HLOOKUP(I5,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L5" s="15">
         <f>IF(K5&lt;&gt;"",HLOOKUP(K5,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N5" s="15">
         <f>IF(M5&lt;&gt;"",HLOOKUP(M5,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -1750,55 +1753,55 @@
         <v/>
       </c>
       <c r="R5" s="21" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="51">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F6" s="16">
         <f>IF(E6&lt;&gt;"",VLOOKUP(E6,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.7</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="15">
         <f>IF(G6&lt;&gt;"",HLOOKUP(G6,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J6" s="15">
         <f>IF(I6&lt;&gt;"",HLOOKUP(I6,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="15">
         <f>IF(K6&lt;&gt;"",HLOOKUP(K6,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N6" s="15">
         <f>IF(M6&lt;&gt;"",HLOOKUP(M6,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -1817,55 +1820,55 @@
         <v/>
       </c>
       <c r="R6" s="21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="76.5">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>52</v>
+      <c r="B7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F7" s="16">
         <f>IF(E7&lt;&gt;"",VLOOKUP(E7,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" s="15">
         <f>IF(G7&lt;&gt;"",HLOOKUP(G7,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" s="15">
         <f>IF(I7&lt;&gt;"",HLOOKUP(I7,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" s="15">
         <f>IF(K7&lt;&gt;"",HLOOKUP(K7,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7" s="15">
         <f>IF(M7&lt;&gt;"",HLOOKUP(M7,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -1883,25 +1886,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R7" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="38.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>41</v>
+      <c r="B8" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>18</v>
@@ -1911,28 +1914,28 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="15">
         <f>IF(G8&lt;&gt;"",HLOOKUP(G8,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <f>IF(I8&lt;&gt;"",HLOOKUP(I8,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.05</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L8" s="15">
         <f>IF(K8&lt;&gt;"",HLOOKUP(K8,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.05</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N8" s="15">
         <f>IF(M8&lt;&gt;"",HLOOKUP(M8,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -1950,56 +1953,56 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R8" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+      <c r="R8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="51">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>41</v>
+      <c r="B9" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="16">
         <f>IF(E9&lt;&gt;"",VLOOKUP(E9,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="15">
         <f>IF(G9&lt;&gt;"",HLOOKUP(G9,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" s="15">
         <f>IF(I9&lt;&gt;"",HLOOKUP(I9,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="15">
         <f>IF(K9&lt;&gt;"",HLOOKUP(K9,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N9" s="15">
         <f>IF(M9&lt;&gt;"",HLOOKUP(M9,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2017,56 +2020,56 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R9" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R9" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="38.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>59</v>
+      <c r="B10" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" s="16">
         <f>IF(E10&lt;&gt;"",VLOOKUP(E10,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" s="15">
         <f>IF(G10&lt;&gt;"",HLOOKUP(G10,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J10" s="15">
         <f>IF(I10&lt;&gt;"",HLOOKUP(I10,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.05</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L10" s="15">
         <f>IF(K10&lt;&gt;"",HLOOKUP(K10,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.05</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N10" s="15">
         <f>IF(M10&lt;&gt;"",HLOOKUP(M10,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2084,56 +2087,56 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R10" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="R10" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>78</v>
+      <c r="B11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F11" s="16">
         <f>IF(E11&lt;&gt;"",VLOOKUP(E11,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H11" s="15">
         <f>IF(G11&lt;&gt;"",HLOOKUP(G11,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J11" s="15">
         <f>IF(I11&lt;&gt;"",HLOOKUP(I11,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L11" s="15">
         <f>IF(K11&lt;&gt;"",HLOOKUP(K11,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.05</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N11" s="15">
         <f>IF(M11&lt;&gt;"",HLOOKUP(M11,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2151,56 +2154,56 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R11" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" s="61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+      <c r="R11" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="51">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>78</v>
+      <c r="B12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F12" s="16">
         <f>IF(E12&lt;&gt;"",VLOOKUP(E12,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H12" s="15">
         <f>IF(G12&lt;&gt;"",HLOOKUP(G12,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J12" s="15">
         <f>IF(I12&lt;&gt;"",HLOOKUP(I12,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L12" s="15">
         <f>IF(K12&lt;&gt;"",HLOOKUP(K12,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.05</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N12" s="15">
         <f>IF(M12&lt;&gt;"",HLOOKUP(M12,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2218,56 +2221,56 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R12" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="R12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="38.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>78</v>
+      <c r="B13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F13" s="16">
         <f>IF(E13&lt;&gt;"",VLOOKUP(E13,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H13" s="15">
         <f>IF(G13&lt;&gt;"",HLOOKUP(G13,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J13" s="15">
         <f>IF(I13&lt;&gt;"",HLOOKUP(I13,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L13" s="15">
         <f>IF(K13&lt;&gt;"",HLOOKUP(K13,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.05</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N13" s="15">
         <f>IF(M13&lt;&gt;"",HLOOKUP(M13,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2285,56 +2288,56 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="S13" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="38.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>92</v>
+      <c r="B14" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F14" s="16">
         <f>IF(E14&lt;&gt;"",VLOOKUP(E14,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" s="15">
         <f>IF(G14&lt;&gt;"",HLOOKUP(G14,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J14" s="15">
         <f>IF(I14&lt;&gt;"",HLOOKUP(I14,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14" s="15">
         <f>IF(K14&lt;&gt;"",HLOOKUP(K14,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N14" s="15">
         <f>IF(M14&lt;&gt;"",HLOOKUP(M14,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2352,56 +2355,56 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R14" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" s="63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="67.5">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="D15" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="57" t="s">
-        <v>73</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F15" s="16">
         <f>IF(E15&lt;&gt;"",VLOOKUP(E15,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H15" s="15">
         <f>IF(G15&lt;&gt;"",HLOOKUP(G15,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J15" s="15">
         <f>IF(I15&lt;&gt;"",HLOOKUP(I15,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" s="15">
         <f>IF(K15&lt;&gt;"",HLOOKUP(K15,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N15" s="15">
         <f>IF(M15&lt;&gt;"",HLOOKUP(M15,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2420,24 +2423,24 @@
         <v/>
       </c>
       <c r="R15" s="21" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="40.5">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>52</v>
+      <c r="D16" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>18</v>
@@ -2447,28 +2450,28 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H16" s="15">
         <f>IF(G16&lt;&gt;"",HLOOKUP(G16,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J16" s="15">
         <f>IF(I16&lt;&gt;"",HLOOKUP(I16,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L16" s="15">
         <f>IF(K16&lt;&gt;"",HLOOKUP(K16,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N16" s="15">
         <f>IF(M16&lt;&gt;"",HLOOKUP(M16,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2487,55 +2490,55 @@
         <v/>
       </c>
       <c r="R16" s="21" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="53.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="40" t="s">
         <v>78</v>
       </c>
+      <c r="D17" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F17" s="16">
         <f>IF(E17&lt;&gt;"",VLOOKUP(E17,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" s="15">
         <f>IF(G17&lt;&gt;"",HLOOKUP(G17,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" s="15">
         <f>IF(I17&lt;&gt;"",HLOOKUP(I17,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" s="15">
         <f>IF(K17&lt;&gt;"",HLOOKUP(K17,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N17" s="15">
         <f>IF(M17&lt;&gt;"",HLOOKUP(M17,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2554,55 +2557,55 @@
         <v/>
       </c>
       <c r="R17" s="21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="40.5">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="40" t="s">
         <v>81</v>
       </c>
+      <c r="D18" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="E18" s="23" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F18" s="16">
         <f>IF(E18&lt;&gt;"",VLOOKUP(E18,Matrix!$B$2:$C$6,2,FALSE),"")</f>
         <v>0.7</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H18" s="15">
         <f>IF(G18&lt;&gt;"",HLOOKUP(G18,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.3</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J18" s="15">
         <f>IF(I18&lt;&gt;"",HLOOKUP(I18,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="15">
         <f>IF(K18&lt;&gt;"",HLOOKUP(K18,Matrix!$D$8:$H$9,2,FALSE),"")</f>
         <v>0.15</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N18" s="15">
         <f>IF(M18&lt;&gt;"",HLOOKUP(M18,Matrix!$D$8:$H$9,2,FALSE),"")</f>
@@ -2621,13 +2624,13 @@
         <v/>
       </c>
       <c r="R18" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="23"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2721,7 +2724,7 @@
       <c r="R20" s="21"/>
       <c r="S20" s="23"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2768,7 +2771,7 @@
       <c r="R21" s="25"/>
       <c r="S21" s="23"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2815,7 +2818,7 @@
       <c r="R22" s="25"/>
       <c r="S22" s="23"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2862,7 +2865,7 @@
       <c r="R23" s="25"/>
       <c r="S23" s="23"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2909,7 +2912,7 @@
       <c r="R24" s="25"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="R25" s="25"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -3003,7 +3006,7 @@
       <c r="R26" s="25"/>
       <c r="S26" s="23"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3050,7 +3053,7 @@
       <c r="R27" s="25"/>
       <c r="S27" s="23"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3097,7 +3100,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="23"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3144,7 +3147,7 @@
       <c r="R29" s="25"/>
       <c r="S29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3191,7 +3194,7 @@
       <c r="R30" s="25"/>
       <c r="S30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3238,7 +3241,7 @@
       <c r="R31" s="25"/>
       <c r="S31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="R32" s="25"/>
       <c r="S32" s="23"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -3332,7 +3335,7 @@
       <c r="R33" s="25"/>
       <c r="S33" s="23"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -3379,7 +3382,7 @@
       <c r="R34" s="25"/>
       <c r="S34" s="23"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -3426,7 +3429,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="23"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -3473,7 +3476,7 @@
       <c r="R36" s="25"/>
       <c r="S36" s="23"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -3520,7 +3523,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="23"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -3567,7 +3570,7 @@
       <c r="R38" s="25"/>
       <c r="S38" s="23"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -3614,7 +3617,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="23"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -3661,7 +3664,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="23"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -3708,7 +3711,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="23"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3755,7 +3758,7 @@
       <c r="R42" s="25"/>
       <c r="S42" s="23"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -3802,7 +3805,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="23"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -3849,7 +3852,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="23"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -3896,7 +3899,7 @@
       <c r="R45" s="25"/>
       <c r="S45" s="23"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -3943,7 +3946,7 @@
       <c r="R46" s="25"/>
       <c r="S46" s="23"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -3990,7 +3993,7 @@
       <c r="R47" s="25"/>
       <c r="S47" s="23"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4037,7 +4040,7 @@
       <c r="R48" s="25"/>
       <c r="S48" s="23"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -4084,7 +4087,7 @@
       <c r="R49" s="25"/>
       <c r="S49" s="23"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -4131,7 +4134,7 @@
       <c r="R50" s="25"/>
       <c r="S50" s="23"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -4178,7 +4181,7 @@
       <c r="R51" s="25"/>
       <c r="S51" s="23"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -4225,7 +4228,7 @@
       <c r="R52" s="25"/>
       <c r="S52" s="23"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -4272,7 +4275,7 @@
       <c r="R53" s="25"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -4319,7 +4322,7 @@
       <c r="R54" s="25"/>
       <c r="S54" s="23"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -4366,7 +4369,7 @@
       <c r="R55" s="25"/>
       <c r="S55" s="23"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -4413,7 +4416,7 @@
       <c r="R56" s="25"/>
       <c r="S56" s="23"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -4460,7 +4463,7 @@
       <c r="R57" s="25"/>
       <c r="S57" s="23"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -4507,7 +4510,7 @@
       <c r="R58" s="25"/>
       <c r="S58" s="23"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -4554,7 +4557,7 @@
       <c r="R59" s="25"/>
       <c r="S59" s="23"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -4601,7 +4604,7 @@
       <c r="R60" s="25"/>
       <c r="S60" s="23"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -4648,7 +4651,7 @@
       <c r="R61" s="25"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -4848,19 +4851,19 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="9" customWidth="1"/>
     <col min="4" max="8" width="12.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>8</v>
+    <row r="2" spans="1:12">
+      <c r="A2" s="61" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C2" s="10">
         <v>0.9</v>
@@ -4887,16 +4890,16 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="8" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="61"/>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10">
         <v>0.7</v>
@@ -4922,7 +4925,7 @@
         <v>0.63</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="K3" s="11">
         <v>0</v>
@@ -4931,8 +4934,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="61"/>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>0.45</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="K4" s="11">
         <f>L3</f>
@@ -4970,10 +4973,10 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="61"/>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10">
         <v>0.3</v>
@@ -4999,7 +5002,7 @@
         <v>0.27</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="K5" s="11">
         <f>L4</f>
@@ -5009,10 +5012,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="61"/>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10">
         <v>0.1</v>
@@ -5037,16 +5040,16 @@
         <f t="shared" si="4"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="J6" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="19"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="10">
         <v>0.05</v>
       </c>
@@ -5063,27 +5066,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="19"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -5108,17 +5111,17 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="D10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="k7uuqW3wMbb0TkTdlaH5Jvc+gvoogRcdBjqBfMhAKzFkUUsjkObFloxM1NkT7skq51QYX+tBR+aZoI71fSyEOQ==" saltValue="QIwboWBfbLO9nV77Ppl2OQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -5187,34 +5190,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5224,6 +5227,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8D702837206A246AD455D6F121F9F4D" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8af291ae571d562e907f5a808a0c30a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29f4699c-91bc-4c71-b81f-33c037aa21d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdff752cfc903cde9893ce482e96e9b7" ns2:_="">
     <xsd:import namespace="29f4699c-91bc-4c71-b81f-33c037aa21d3"/>
@@ -5367,15 +5379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5383,11 +5386,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9297DDE0-A35B-483A-9097-71FCC027EE24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B03DE16-A7FB-42F8-BAF2-7F44CF1A2804}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B03DE16-A7FB-42F8-BAF2-7F44CF1A2804}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9297DDE0-A35B-483A-9097-71FCC027EE24}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
